--- a/data/long_dif/P23_6-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_6-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>18,14%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23,68%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,05; 33,28</t>
+          <t>14,23; 32,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 20,12</t>
+          <t>10,08; 20,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,61; 33,1</t>
+          <t>11,25; 29,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,84; 24,68</t>
+          <t>17,54; 33,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,04; 30,03</t>
+          <t>14,45; 24,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,53; 20,9</t>
+          <t>12,17; 26,53</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18,16; 29,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13,57; 20,67</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 24,49</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>60,04%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,69%</t>
+          <t>63,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,55%</t>
+          <t>56,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,78%</t>
+          <t>60,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,0%</t>
+          <t>55,75%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>59,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61,89%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>55,87%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,66; 71,64</t>
+          <t>50,97; 74,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,57; 71,3</t>
+          <t>50,72; 71,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,47; 65,0</t>
+          <t>44,29; 72,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,44; 67,74</t>
+          <t>47,97; 65,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,42; 65,18</t>
+          <t>53,65; 66,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,8; 67,15</t>
+          <t>47,27; 64,35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52,49; 66,49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55,14; 67,07</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>49,39; 65,17</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>26,11%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25,39%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 23,3</t>
+          <t>8,93; 23,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,51; 39,08</t>
+          <t>14,23; 39,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,13; 23,22</t>
+          <t>14,39; 34,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,59; 26,15</t>
+          <t>12,69; 25,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,75; 21,12</t>
+          <t>15,52; 26,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 29,61</t>
+          <t>19,24; 34,18</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12,64; 22,96</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 29,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 31,57</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,12; 25,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 21,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 24,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 19,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 23,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 19,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>59,63%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,91%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,21%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,61; 67,67</t>
+          <t>15,54; 25,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,0; 73,14</t>
+          <t>12,61; 21,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,69; 64,72</t>
+          <t>13,27; 24,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,53; 71,51</t>
+          <t>15,71; 25,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>57,23; 64,81</t>
+          <t>13,4; 19,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,12; 71,72</t>
+          <t>14,61; 23,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,73; 23,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,0; 19,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15,11; 22,15</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>60,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>59,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>61,99%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>59,25%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>67,79%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>61,38%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,91; 24,26</t>
+          <t>51,76; 65,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,76</t>
+          <t>62,2; 72,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,62; 24,32</t>
+          <t>53,77; 67,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,97</t>
+          <t>53,38; 64,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,69; 22,5</t>
+          <t>63,7; 71,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,2; 17,97</t>
+          <t>56,37; 66,6</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>54,78; 63,78</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>64,05; 70,8</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56,4; 65,51</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>19,54%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20,41%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,01; 23,46</t>
+          <t>15,3; 30,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,74</t>
+          <t>12,51; 20,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,86; 20,71</t>
+          <t>15,67; 30,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,03</t>
+          <t>17,05; 25,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,26; 20,39</t>
+          <t>12,71; 20,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,73; 17,07</t>
+          <t>15,88; 24,64</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17,45; 26,05</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13,64; 18,85</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17,2; 25,82</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>68,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>68,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,28%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>61,1; 74,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>67,15; 77,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>62,92; 72,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>65,46; 74,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,09; 72,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,9; 74,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15,54%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11,65%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,87; 21,65</t>
+          <t>10,57; 22,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,97; 15,45</t>
+          <t>11,62; 21,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,63; 19,49</t>
+          <t>7,01; 15,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,06; 20,97</t>
+          <t>12,03; 20,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,57; 18,78</t>
+          <t>9,79; 15,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,32; 17,1</t>
+          <t>9,48; 16,59</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 19,78</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11,88; 17,67</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 14,84</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>68,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>72,27%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>69,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>69,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>69,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>67,05%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>68,59%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71,08%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>68,4%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>16,5; 23,43</t>
+          <t>59,75; 74,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,81</t>
+          <t>66,35; 77,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,03; 22,89</t>
+          <t>61,62; 75,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,07</t>
+          <t>63,56; 74,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,74; 22,18</t>
+          <t>65,71; 73,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>14,12; 17,67</t>
+          <t>62,22; 72,53</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>63,87; 72,6</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>67,2; 74,09</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>64,08; 72,44</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>68,96%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>62,02%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>66,93%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>62,85%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>67,93%</t>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>15,88%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14,62%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>59,75; 67,93</t>
+          <t>12,41; 23,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>64,65; 72,22</t>
+          <t>8,64; 15,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>58,88; 65,21</t>
+          <t>14,29; 29,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>64,31; 69,51</t>
+          <t>10,86; 18,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>60,18; 65,29</t>
+          <t>14,02; 20,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>65,6; 70,17</t>
+          <t>16,03; 24,79</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 19,79</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 17,31</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 25,08</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,924 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,43; 20,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13,17; 19,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>15,68; 20,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,08; 19,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,48; 19,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,6; 18,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 34,63</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 27,75</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 27,76</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>64,05%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>63,09%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>63,6%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>54,69; 72,54</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>54,94; 70,85</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>58,13; 69,58</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 18,09</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 23,32</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>10,63; 18,34</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>15,88%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>19,66%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 22,88</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 18,86</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 19,19</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 22,87</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>13,73; 17,78</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 19,4</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 21,89</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>14,1; 17,54</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>14,12; 18,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>63,15%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>68,37%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>63,03%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>62,27%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>66,91%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>62,38%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>62,7%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>67,62%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>62,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>58,46; 66,74</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>64,06; 71,57</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>57,15; 67,31</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>59,07; 65,55</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>63,96; 69,57</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>58,8; 65,65</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>60,0; 65,16</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>65,14; 69,77</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>59,62; 65,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>17,33%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>21,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 21,66</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 19,75</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>17,81; 26,93</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>15,45; 20,44</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 19,66</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>18,17; 24,05</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>15,67; 20,08</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>14,97; 18,68</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>18,64; 24,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
